--- a/src/demo/zxxt_demo_052-xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_demo_052-xlsx.w3mi.data.xlsx
@@ -174,7 +174,7 @@
     <t>{R-T;level=1;top=X}</t>
   </si>
   <si>
-    <t xml:space="preserve">Sub totals of group {R-T-GROUP} </t>
+    <t>Sub totals of group {R-T-GROUP;func=FIRST}</t>
   </si>
   <si>
     <t>{R-T;level=1;top=}</t>

--- a/src/demo/zxxt_demo_052-xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_demo_052-xlsx.w3mi.data.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modekz\AppData\Local\SAP\SAP GUI\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modekz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809286F0-FF9D-4DB9-AF8D-B6B66F67CD00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3102BE80-169D-4CCA-9B77-FAF745F44646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group by 1 field" sheetId="1" r:id="rId1"/>
     <sheet name="group by 1 field(level orders)" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -139,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>{R-TITLE}</t>
   </si>
@@ -211,13 +222,51 @@
   </si>
   <si>
     <t>Level order does not matter</t>
+  </si>
+  <si>
+    <t>{R-T-CAPTION;func=COUNT}</t>
+  </si>
+  <si>
+    <t>Groups count {R-T:condense( v-CAPTION )}</t>
+  </si>
+  <si>
+    <t>https://bizhuka.github.io/xtt/cond/</t>
+  </si>
+  <si>
+    <t>Text goes to the bottom ;top=abap_false</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>F5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> cell ABAP statement =CONDENSE( )  ! works in new SAP systems</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -388,6 +437,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -849,7 +929,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -892,8 +972,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -943,6 +1024,17 @@
     <xf numFmtId="4" fontId="0" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -952,50 +1044,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1310,136 +1412,162 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
-    <col min="4" max="6" width="33.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="77.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="47.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="33.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="46" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41.88671875" customWidth="1"/>
+    <col min="7" max="9" width="33.44140625" customWidth="1"/>
+    <col min="10" max="10" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="F5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="H5" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="F6" s="6" t="str">
+        <f>"Sub items count " &amp; D$6</f>
+        <v>Sub items count {R-T-CAPTION;func=COUNT}</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:E4"/>
+  <mergeCells count="2">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{99930FE1-6C5C-4EEE-9375-0D4F6143F800}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1450,25 +1578,25 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
-    <col min="4" max="5" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="80.44140625" customWidth="1"/>
+    <col min="4" max="5" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
@@ -1485,7 +1613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +1630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
@@ -1519,7 +1647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
@@ -1529,25 +1657,25 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
